--- a/docs/StructureDefinition-Observation-no-infections-present-during-pregnancy.xlsx
+++ b/docs/StructureDefinition-Observation-no-infections-present-during-pregnancy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-no-infections-present-during-pregnancy.xlsx
+++ b/docs/StructureDefinition-Observation-no-infections-present-during-pregnancy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-no-infections-present-during-pregnancy.xlsx
+++ b/docs/StructureDefinition-Observation-no-infections-present-during-pregnancy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -721,7 +721,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/vr-common-library/StructureDefinition/Patient-child-vr)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/vr-common-library/StructureDefinition/Patient-mother-vr)
 </t>
   </si>
   <si>
